--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.35</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>58.26</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>53.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.8</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.89</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.8</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.23</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -1973,14 +2144,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="6">
@@ -1989,14 +2160,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -2005,13 +2176,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,323 +457,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9469</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6749</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1690</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -830,32 +826,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9258</t>
+          <t>0.7672</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -868,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7563</t>
+          <t>0.2787</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -906,36 +902,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1250</t>
+          <t>0.1858</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -944,36 +940,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>002860</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>83.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +977,423 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,423 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5881</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3152</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2178</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5719</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1971</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1708,7 +1704,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1738,32 +1734,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>53.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.9258</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1776,36 +1772,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2787</t>
+          <t>0.7563</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1814,36 +1810,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1858</t>
+          <t>0.1250</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1852,206 +1848,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002860</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.26</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9987</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1343</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2065,144 +1891,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.92</v>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.92</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1393,7 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1677,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06881-中国银河.xlsx
+++ b/数据整理/stocks/港股/06881-中国银河.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.92</v>
       </c>
     </row>
@@ -616,7 +633,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1694,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1978,7 +2487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2184,326 +2693,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9469</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6749</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1690</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>